--- a/Regression_Evaluation.xlsx
+++ b/Regression_Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\DAP\Assessment\Project task\2022_S2_DAP_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B580DB0-E590-4E4D-A146-7141CDD21022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AC1733-2E93-4B3B-8752-1A5069A970CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93E368CC-CDC5-42ED-9795-38FBC539BBCE}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{93E368CC-CDC5-42ED-9795-38FBC539BBCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
   <si>
     <t>Coefficient</t>
   </si>
@@ -72,6 +72,27 @@
   </si>
   <si>
     <t>Adjusted R-squared</t>
+  </si>
+  <si>
+    <t>Fit 2</t>
+  </si>
+  <si>
+    <t>Fit 3</t>
+  </si>
+  <si>
+    <t>* not significant under 1% but 5% level | coefficient is small</t>
+  </si>
+  <si>
+    <t>Fit 4</t>
+  </si>
+  <si>
+    <t>Fit 5</t>
+  </si>
+  <si>
+    <t>* coefficient is small</t>
+  </si>
+  <si>
+    <t>median_income</t>
   </si>
 </sst>
 </file>
@@ -79,9 +100,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,9 +114,21 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -177,38 +210,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,144 +555,552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091D4D33-A18B-4B24-83D4-C19F659B8EC2}">
-  <dimension ref="C3:F17"/>
+  <dimension ref="C3:F51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="23.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>29.65</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="5">
         <v>2E-16</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4">
         <v>13.03</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="5">
         <v>4.1000000000000001E-11</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4">
         <v>13.03</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="5">
         <v>1.1700000000000001E-13</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4">
         <v>-9.4469999999999995E-5</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="5">
         <v>5.9400000000000005E-7</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4">
         <v>0.11600000000000001</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="5">
         <v>2E-16</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4">
         <v>-1.0589999999999999</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="5">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>-1.57</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="5">
         <v>0.1661</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="4">
         <v>-1.624E-6</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="5">
         <v>5.5300000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>0.30520000000000003</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="11">
         <v>0.30330000000000001</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
+    <row r="15" spans="3:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>29.6</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2E-16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>12.96</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5.2300000000000003E-11</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>13.14</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6.94E-14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-9.4400000000000004E-5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>6.0699999999999997E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.1163</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2E-16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-1.0369999999999999</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5.79E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-1.606E-6</v>
+      </c>
+      <c r="E22" s="5">
+        <v>5.8099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.30309999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>29.73</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2E-16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>12.81</v>
+      </c>
+      <c r="E28" s="5">
+        <v>8.4500000000000005E-11</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4">
+        <v>13.16</v>
+      </c>
+      <c r="E29" s="5">
+        <v>6.5400000000000004E-14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="4">
+        <v>-9.7419999999999999E-5</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2.4299999999999999E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.1163</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2E-16</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-2.0209999999999998E-6</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.3024</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>30.461841499999998</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2E-16</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4">
+        <v>11.938390399999999</v>
+      </c>
+      <c r="E38" s="5">
+        <v>7.8999999999999996E-10</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4">
+        <v>13.065434700000001</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1.04E-13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="4">
+        <v>-1.111E-4</v>
+      </c>
+      <c r="E40" s="5">
+        <v>7.8499999999999998E-10</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.1177107</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2E-16</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0.30109999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>21.657071999999999</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2E-16</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4">
+        <v>19.984846000000001</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2E-16</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="4">
+        <v>13.766287</v>
+      </c>
+      <c r="E48" s="5">
+        <v>6.5500000000000003E-15</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.129054</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2E-16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0.2913</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:E11">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E37:E41">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0.05"/>
+        <cfvo type="num" val="0.15"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.05"/>
+        <cfvo type="num" val="0.15"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E22">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.05"/>
+        <cfvo type="num" val="0.15"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.05"/>
+        <cfvo type="num" val="0.15"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E49">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.05"/>
+        <cfvo type="num" val="0.15"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>

--- a/Regression_Evaluation.xlsx
+++ b/Regression_Evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\DAP\Assessment\Project task\2022_S2_DAP_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AC1733-2E93-4B3B-8752-1A5069A970CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C1ED4B-9FF8-4C4B-A6CA-B68E4E1852CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{93E368CC-CDC5-42ED-9795-38FBC539BBCE}"/>
+    <workbookView xWindow="-285" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{93E368CC-CDC5-42ED-9795-38FBC539BBCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091D4D33-A18B-4B24-83D4-C19F659B8EC2}">
   <dimension ref="C3:F51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>29.65</v>
+        <v>29.55</v>
       </c>
       <c r="E4" s="5">
         <v>2E-16</v>
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>13.03</v>
+        <v>24.58</v>
       </c>
       <c r="E5" s="5">
         <v>4.1000000000000001E-11</v>
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="4">
-        <v>13.03</v>
+        <v>25.65</v>
       </c>
       <c r="E6" s="5">
         <v>1.1700000000000001E-13</v>
@@ -618,7 +618,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="4">
-        <v>-9.4469999999999995E-5</v>
+        <v>-9.5779999999999994E-5</v>
       </c>
       <c r="E7" s="5">
         <v>5.9400000000000005E-7</v>
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="4">
-        <v>0.11600000000000001</v>
+        <v>0.1183</v>
       </c>
       <c r="E8" s="5">
         <v>2E-16</v>
@@ -640,10 +640,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="4">
-        <v>-1.0589999999999999</v>
+        <v>-1.0089999999999999</v>
       </c>
       <c r="E9" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>6.5199999999999994E-2</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
@@ -651,10 +651,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>-1.57</v>
+        <v>-1.4159999999999999</v>
       </c>
       <c r="E10" s="5">
-        <v>0.1661</v>
+        <v>0.2117</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
@@ -662,10 +662,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="4">
-        <v>-1.624E-6</v>
+        <v>-7.9260000000000004E-7</v>
       </c>
       <c r="E11" s="5">
-        <v>5.5300000000000002E-2</v>
+        <v>6.1600000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
@@ -673,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="9">
-        <v>0.30520000000000003</v>
+        <v>0.3049</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -682,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="11">
-        <v>0.30330000000000001</v>
+        <v>0.30309999999999998</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="15" x14ac:dyDescent="0.2">
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="4">
-        <v>29.6</v>
+        <v>29.49</v>
       </c>
       <c r="E16" s="5">
         <v>2E-16</v>
@@ -712,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="4">
-        <v>12.96</v>
+        <v>24.49</v>
       </c>
       <c r="E17" s="5">
         <v>5.2300000000000003E-11</v>
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="4">
-        <v>13.14</v>
+        <v>25.85</v>
       </c>
       <c r="E18" s="5">
         <v>6.94E-14</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="4">
-        <v>-9.4400000000000004E-5</v>
+        <v>-9.5530000000000002E-5</v>
       </c>
       <c r="E19" s="5">
         <v>6.0699999999999997E-7</v>
@@ -746,7 +746,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="4">
-        <v>0.1163</v>
+        <v>0.1186</v>
       </c>
       <c r="E20" s="5">
         <v>2E-16</v>
@@ -757,10 +757,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="4">
-        <v>-1.0369999999999999</v>
+        <v>-0.98970000000000002</v>
       </c>
       <c r="E21" s="5">
-        <v>5.79E-2</v>
+        <v>7.0400000000000004E-2</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
@@ -771,7 +771,7 @@
         <v>-1.606E-6</v>
       </c>
       <c r="E22" s="5">
-        <v>5.8099999999999999E-2</v>
+        <v>6.3899999999999998E-2</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
@@ -779,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="9">
-        <v>0.30470000000000003</v>
+        <v>0.30449999999999999</v>
       </c>
       <c r="E23" s="10"/>
     </row>
@@ -788,7 +788,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="11">
-        <v>0.30309999999999998</v>
+        <v>0.3029</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="15" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="4">
-        <v>29.73</v>
+        <v>29.6</v>
       </c>
       <c r="E27" s="5">
         <v>2E-16</v>
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="4">
-        <v>12.81</v>
+        <v>24.26</v>
       </c>
       <c r="E28" s="5">
         <v>8.4500000000000005E-11</v>
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="4">
-        <v>13.16</v>
+        <v>25.88</v>
       </c>
       <c r="E29" s="5">
         <v>6.5400000000000004E-14</v>
@@ -840,7 +840,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="4">
-        <v>-9.7419999999999999E-5</v>
+        <v>-9.8259999999999998E-5</v>
       </c>
       <c r="E30" s="5">
         <v>2.4299999999999999E-7</v>
@@ -851,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="4">
-        <v>0.1163</v>
+        <v>0.1187</v>
       </c>
       <c r="E31" s="5">
         <v>2E-16</v>
@@ -865,7 +865,7 @@
         <v>-2.0209999999999998E-6</v>
       </c>
       <c r="E32" s="5">
-        <v>1.3599999999999999E-2</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -885,7 +885,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="11">
-        <v>0.3024</v>
+        <v>0.30230000000000001</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="15" x14ac:dyDescent="0.2">
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="4">
-        <v>30.461841499999998</v>
+        <v>30.31</v>
       </c>
       <c r="E37" s="5">
         <v>2E-16</v>
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="4">
-        <v>11.938390399999999</v>
+        <v>22.63</v>
       </c>
       <c r="E38" s="5">
         <v>7.8999999999999996E-10</v>
@@ -926,7 +926,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="4">
-        <v>13.065434700000001</v>
+        <v>25.66</v>
       </c>
       <c r="E39" s="5">
         <v>1.04E-13</v>
@@ -951,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="4">
-        <v>0.1177107</v>
+        <v>0.1201</v>
       </c>
       <c r="E41" s="5">
         <v>2E-16</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="4">
-        <v>21.657071999999999</v>
+        <v>21.411539999999999</v>
       </c>
       <c r="E46" s="5">
         <v>2E-16</v>
@@ -1001,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="4">
-        <v>19.984846000000001</v>
+        <v>38.047429999999999</v>
       </c>
       <c r="E47" s="5">
         <v>2E-16</v>
@@ -1012,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="4">
-        <v>13.766287</v>
+        <v>27.253440000000001</v>
       </c>
       <c r="E48" s="5">
         <v>6.5500000000000003E-15</v>
@@ -1023,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="4">
-        <v>0.129054</v>
+        <v>0.13205</v>
       </c>
       <c r="E49" s="5">
         <v>2E-16</v>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="9">
-        <v>0.29210000000000003</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E50" s="10"/>
     </row>
@@ -1043,7 +1043,7 @@
         <v>12</v>
       </c>
       <c r="D51" s="11">
-        <v>0.2913</v>
+        <v>0.29120000000000001</v>
       </c>
     </row>
   </sheetData>
